--- a/Информационно - коммуникационные технологии/Лабораторная №3/Лабораторная 2.xlsx
+++ b/Информационно - коммуникационные технологии/Лабораторная №3/Лабораторная 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 1" sheetId="1" r:id="rId1"/>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,11 +1457,13 @@
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1469,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,7 +2130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -2883,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3718,7 +3720,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4098,7 +4100,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4476,7 +4478,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
